--- a/2do/ISO/Practica4/ejer 9.xlsx
+++ b/2do/ISO/Practica4/ejer 9.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="28">
   <si>
     <t>Marco/Pagina</t>
   </si>
@@ -87,6 +87,27 @@
   </si>
   <si>
     <t>B8</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Seg. Chance</t>
+  </si>
+  <si>
+    <t>A1*</t>
+  </si>
+  <si>
+    <t>B2*</t>
+  </si>
+  <si>
+    <t>B4*</t>
+  </si>
+  <si>
+    <t>C4*</t>
+  </si>
+  <si>
+    <t>C1*</t>
   </si>
 </sst>
 </file>
@@ -110,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +141,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,11 +169,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,97 +456,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="31" width="3" customWidth="1"/>
+    <col min="2" max="29" width="4.109375" customWidth="1"/>
+    <col min="30" max="31" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="T1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -578,8 +622,26 @@
       <c r="V2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -643,8 +705,26 @@
       <c r="V3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -705,8 +785,26 @@
       <c r="V4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -764,8 +862,26 @@
       <c r="V5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -817,8 +933,26 @@
       <c r="V6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -867,8 +1001,26 @@
       <c r="V7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -914,61 +1066,104 @@
       <c r="V8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <f>SUM(B9:AB9)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -999,17 +1194,17 @@
       <c r="K10" s="2">
         <v>4</v>
       </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10">
+      <c r="L10" s="2">
+        <v>7</v>
+      </c>
+      <c r="M10" s="2">
         <v>9</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1034,17 +1229,17 @@
       <c r="I11" s="2">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>3</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1073,17 +1268,833 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" t="s">
+        <v>18</v>
+      </c>
+      <c r="X24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <f>SUM(B25:AB25)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2">
+        <v>7</v>
+      </c>
+      <c r="M26" s="2">
+        <v>9</v>
+      </c>
+      <c r="N26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>8</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>8</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>8</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>